--- a/data-raw/LMDI_testing.xlsx
+++ b/data-raw/LMDI_testing.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="with matrices - incremental" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="LMDI-I - simple test matrices" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="LMDI-II - simple test matrices" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="LMDI-I - simple test matrices (" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="LMDI-II - simple test matrices " sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="LMDI-I - simple test degenerate" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="LMDI-II - simple test degenerat" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="LMDI-I - Ang (2015)" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="LMDI-II - Ang (2015)" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="SuperSimple testing" sheetId="8" state="visible" r:id="rId9"/>
@@ -1089,6 +1089,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)²</t>
         </r>
@@ -1102,6 +1103,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)²</t>
         </r>
@@ -1115,6 +1117,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)²</t>
         </r>
@@ -1128,6 +1131,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)²</t>
         </r>
@@ -1141,6 +1145,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)²</t>
         </r>
@@ -1154,6 +1159,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)²</t>
         </r>
@@ -1167,6 +1173,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)²</t>
         </r>
@@ -1180,6 +1187,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)²</t>
         </r>
@@ -1218,6 +1226,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MKH:
 </t>
@@ -1228,6 +1237,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">This value is undefined, because it is log(0/0).</t>
         </r>
@@ -1241,6 +1251,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MKH:
 </t>
@@ -1251,6 +1262,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">This value is undefined, because it is log(0/0).</t>
         </r>
@@ -1264,6 +1276,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV:
 </t>
@@ -1274,6 +1287,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With X_0 = 0 and v_0 = 0 (and X_T &gt; 0 and v_T &gt; 0), we get Z_ij = v_T. (This from row 1 of Ang's 1998 table.)</t>
         </r>
@@ -1287,6 +1301,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV :
 </t>
@@ -1297,6 +1312,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With v_T = 0 and all of X_0, X_T, and v_0 positive numbers, we get Z_ij = 0. (This from row 4 of Ang's 1998 table.)</t>
         </r>
@@ -1310,6 +1326,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV :
 </t>
@@ -1320,6 +1337,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With v_0 = 0 and all of X_0, X_T, and v_T positive numbers, we get Z_ij = 0. (This from row 3 of Ang's 1998 table.)</t>
         </r>
@@ -1333,6 +1351,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV :
 </t>
@@ -1343,6 +1362,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With v_T = 0 and all of X_0, X_T, and v_0 positive numbers, we get Z_ij = 0. (This from row 4 of Ang's 1998 table.)</t>
         </r>
@@ -1356,6 +1376,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV :
 </t>
@@ -1366,6 +1387,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With v_0 = 0 and all of X_0, X_T, and v_T positive numbers, we get Z_ij = 0. (This from row 3 of Ang's 1998 table.)</t>
         </r>
@@ -1379,6 +1401,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV:
 </t>
@@ -1389,6 +1412,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With X_T = 0 and v_T = 0 (and X_0 &gt; 0 and v_0 &gt; 0), we get Z_ij = -v_0. (This from row 2 of Ang's 1998 table.)</t>
         </r>
@@ -1404,16 +1428,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">D can also be obtained from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">∆V by dividing by L(V)</t>
+          <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
       </text>
     </comment>
@@ -1427,16 +1442,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">D can also be obtained from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">∆V by dividing by L(V)</t>
+          <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
       </text>
     </comment>
@@ -1448,6 +1454,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
@@ -1463,16 +1470,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">D can also be obtained from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">∆V by dividing by L(V)</t>
+          <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
       </text>
     </comment>
@@ -1484,6 +1482,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
@@ -1499,16 +1498,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">D can also be obtained from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">∆V by dividing by L(V)</t>
+          <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
       </text>
     </comment>
@@ -1530,6 +1520,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MKH:
 </t>
@@ -1540,6 +1531,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">This value is undefined, because it is log(0/0).</t>
         </r>
@@ -1553,6 +1545,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV:
 </t>
@@ -1563,6 +1556,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With X_0 = 0 and v_0 = 0 (and X_T &gt; 0 and v_T &gt; 0), we get Z_ij = v_T. (This from row 1 of Ang's 1998 table.)</t>
         </r>
@@ -1576,6 +1570,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV :
 </t>
@@ -1586,6 +1581,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With v_T = 0 and all of X_0, X_T, and v_0 positive numbers, we get Z_ij = 0. (This from row 4 of Ang's 1998 table.)</t>
         </r>
@@ -1599,6 +1595,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV :
 </t>
@@ -1609,6 +1606,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With v_0 = 0 and all of X_0, X_T, and v_T positive numbers, we get Z_ij = 0. (This from row 3 of Ang's 1998 table.)</t>
         </r>
@@ -1622,6 +1620,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV :
 </t>
@@ -1632,6 +1631,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With v_T = 0 and all of X_0, X_T, and v_0 positive numbers, we get Z_ij = 0. (This from row 4 of Ang's 1998 table.)</t>
         </r>
@@ -1645,6 +1645,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV :
 </t>
@@ -1655,6 +1656,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With v_0 = 0 and all of X_0, X_T, and v_T positive numbers, we get Z_ij = 0. (This from row 3 of Ang's 1998 table.)</t>
         </r>
@@ -1668,6 +1670,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">JHV:
 </t>
@@ -1678,6 +1681,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">With X_T = 0 and v_T = 0 (and X_0 &gt; 0 and v_0 &gt; 0), we get Z_ij = -v_0. (This from row 2 of Ang's 1998 table.)</t>
         </r>
@@ -1721,16 +1725,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">D can also be obtained from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">∆V by dividing by L(V)</t>
+          <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
       </text>
     </comment>
@@ -1744,16 +1739,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">D can also be obtained from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">∆V by dividing by L(V)</t>
+          <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
       </text>
     </comment>
@@ -1767,16 +1753,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">D can also be obtained from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">∆V by dividing by L(V)</t>
+          <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
       </text>
     </comment>
@@ -1790,16 +1767,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">D can also be obtained from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">∆V by dividing by L(V)</t>
+          <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
       </text>
     </comment>
@@ -1813,16 +1781,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">D can also be obtained from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">∆V by dividing by L(V)</t>
+          <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
       </text>
     </comment>
@@ -1836,16 +1795,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">D can also be obtained from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">∆V by dividing by L(V)</t>
+          <t xml:space="preserve">D can also be obtained from ∆V by dividing by L(V)</t>
         </r>
       </text>
     </comment>
@@ -1857,6 +1807,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">LMDI-II is not consistent in aggregation, and this is strongly visible in a degenerate case</t>
         </r>
@@ -1870,6 +1821,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">LMDI-II is not consistent in aggregation, and this is strongly visible in a degenerate case</t>
         </r>
@@ -2853,7 +2805,7 @@
     <numFmt numFmtId="168" formatCode="0.00E+00"/>
     <numFmt numFmtId="169" formatCode="0E+00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2936,18 +2888,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3131,7 +3071,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3356,10 +3296,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3408,7 +3344,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3420,44 +3356,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3540,10 +3448,10 @@
   <dimension ref="A1:AP56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G45" activeCellId="1" sqref="AA22:AC22 G45"/>
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.16"/>
@@ -6101,10 +6009,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="V59" activeCellId="1" sqref="AA22:AC22 V59"/>
+      <selection pane="bottomRight" activeCell="V59" activeCellId="0" sqref="V59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.67"/>
@@ -6194,16 +6102,16 @@
       <c r="C3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="59" t="n">
+      <c r="D3" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E3" s="59" t="n">
+      <c r="E3" s="58" t="n">
         <v>0.210861759257025</v>
       </c>
-      <c r="F3" s="59" t="n">
+      <c r="F3" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G3" s="59" t="n">
+      <c r="G3" s="58" t="n">
         <v>0.0281963311351873</v>
       </c>
       <c r="H3" s="12" t="n">
@@ -6220,16 +6128,16 @@
       <c r="C4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="59" t="n">
+      <c r="D4" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E4" s="59" t="n">
+      <c r="E4" s="58" t="n">
         <v>0.0735335673227738</v>
       </c>
-      <c r="F4" s="59" t="n">
+      <c r="F4" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G4" s="59" t="n">
+      <c r="G4" s="58" t="n">
         <v>0.0286633072660316</v>
       </c>
       <c r="H4" s="12" t="n">
@@ -6246,16 +6154,16 @@
       <c r="C5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="59" t="n">
+      <c r="D5" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E5" s="59" t="n">
+      <c r="E5" s="58" t="n">
         <v>0.0228855223722232</v>
       </c>
-      <c r="F5" s="59" t="n">
+      <c r="F5" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G5" s="59" t="n">
+      <c r="G5" s="58" t="n">
         <v>0.224497046207658</v>
       </c>
       <c r="H5" s="12" t="n">
@@ -6272,16 +6180,16 @@
       <c r="C6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="59" t="n">
+      <c r="D6" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E6" s="59" t="n">
+      <c r="E6" s="58" t="n">
         <v>0.00114281868130302</v>
       </c>
-      <c r="F6" s="59" t="n">
+      <c r="F6" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G6" s="58" t="n">
         <v>0.0317902134280087</v>
       </c>
       <c r="H6" s="12" t="n">
@@ -6298,16 +6206,16 @@
       <c r="C7" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="59" t="n">
+      <c r="D7" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E7" s="59" t="n">
+      <c r="E7" s="58" t="n">
         <v>0.0259099849043504</v>
       </c>
-      <c r="F7" s="59" t="n">
+      <c r="F7" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G7" s="59" t="n">
+      <c r="G7" s="58" t="n">
         <v>0.170482929007251</v>
       </c>
       <c r="H7" s="12" t="n">
@@ -6324,16 +6232,16 @@
       <c r="C8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="59" t="n">
+      <c r="D8" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E8" s="59" t="n">
+      <c r="E8" s="58" t="n">
         <v>0.136845768171156</v>
       </c>
-      <c r="F8" s="59" t="n">
+      <c r="F8" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G8" s="59" t="n">
+      <c r="G8" s="58" t="n">
         <v>0.0454264638752156</v>
       </c>
       <c r="H8" s="12" t="n">
@@ -6350,16 +6258,16 @@
       <c r="C9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="59" t="n">
+      <c r="D9" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E9" s="59" t="n">
+      <c r="E9" s="58" t="n">
         <v>0.118653561284674</v>
       </c>
-      <c r="F9" s="59" t="n">
+      <c r="F9" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G9" s="59" t="n">
+      <c r="G9" s="58" t="n">
         <v>0.320165242176175</v>
       </c>
       <c r="H9" s="12" t="n">
@@ -6376,16 +6284,16 @@
       <c r="C10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="59" t="n">
+      <c r="D10" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E10" s="59" t="n">
+      <c r="E10" s="58" t="n">
         <v>0.153804094680827</v>
       </c>
-      <c r="F10" s="59" t="n">
+      <c r="F10" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G10" s="59" t="n">
+      <c r="G10" s="58" t="n">
         <v>0.0220328768809411</v>
       </c>
       <c r="H10" s="12" t="n">
@@ -6402,16 +6310,16 @@
       <c r="C11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="59" t="n">
+      <c r="D11" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E11" s="59" t="n">
+      <c r="E11" s="58" t="n">
         <v>0.00614783090353588</v>
       </c>
-      <c r="F11" s="59" t="n">
+      <c r="F11" s="58" t="n">
         <v>0.199360444579827</v>
       </c>
-      <c r="G11" s="59" t="n">
+      <c r="G11" s="58" t="n">
         <v>0.790509720980781</v>
       </c>
       <c r="H11" s="12" t="n">
@@ -6428,16 +6336,16 @@
       <c r="C12" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="59" t="n">
+      <c r="D12" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E12" s="59" t="n">
+      <c r="E12" s="58" t="n">
         <v>0.493761281654635</v>
       </c>
-      <c r="F12" s="59" t="n">
+      <c r="F12" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G12" s="59" t="n">
+      <c r="G12" s="58" t="n">
         <v>0.418806456599763</v>
       </c>
       <c r="H12" s="12" t="n">
@@ -6454,16 +6362,16 @@
       <c r="C13" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="59" t="n">
+      <c r="D13" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E13" s="59" t="n">
+      <c r="E13" s="58" t="n">
         <v>0.262281256362572</v>
       </c>
-      <c r="F13" s="59" t="n">
+      <c r="F13" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G13" s="59" t="n">
+      <c r="G13" s="58" t="n">
         <v>0.182382265692303</v>
       </c>
       <c r="H13" s="12" t="n">
@@ -6480,16 +6388,16 @@
       <c r="C14" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="59" t="n">
+      <c r="D14" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E14" s="59" t="n">
+      <c r="E14" s="58" t="n">
         <v>0.0183777631771212</v>
       </c>
-      <c r="F14" s="59" t="n">
+      <c r="F14" s="58" t="n">
         <v>0.199360444579827</v>
       </c>
-      <c r="G14" s="59" t="n">
+      <c r="G14" s="58" t="n">
         <v>0.209490279019219</v>
       </c>
       <c r="H14" s="12" t="n">
@@ -6506,16 +6414,16 @@
       <c r="C15" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="59" t="n">
+      <c r="D15" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E15" s="59" t="n">
+      <c r="E15" s="58" t="n">
         <v>0.493761281654635</v>
       </c>
-      <c r="F15" s="59" t="n">
+      <c r="F15" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G15" s="59" t="n">
+      <c r="G15" s="58" t="n">
         <v>0.0119864737771605</v>
       </c>
       <c r="H15" s="12" t="n">
@@ -6532,16 +6440,16 @@
       <c r="C16" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="59" t="n">
+      <c r="D16" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E16" s="59" t="n">
+      <c r="E16" s="58" t="n">
         <v>0.163191675347039</v>
       </c>
-      <c r="F16" s="59" t="n">
+      <c r="F16" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G16" s="59" t="n">
+      <c r="G16" s="58" t="n">
         <v>0.410714384104541</v>
       </c>
       <c r="H16" s="12" t="n">
@@ -6558,16 +6466,16 @@
       <c r="C17" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="59" t="n">
+      <c r="D17" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E17" s="59" t="n">
+      <c r="E17" s="58" t="n">
         <v>0.0593267806423371</v>
       </c>
-      <c r="F17" s="59" t="n">
+      <c r="F17" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G17" s="59" t="n">
+      <c r="G17" s="58" t="n">
         <v>0.0192787672708235</v>
       </c>
       <c r="H17" s="12" t="n">
@@ -6584,16 +6492,16 @@
       <c r="C18" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="59" t="n">
+      <c r="D18" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E18" s="59" t="n">
+      <c r="E18" s="58" t="n">
         <v>0.0151015479568266</v>
       </c>
-      <c r="F18" s="59" t="n">
+      <c r="F18" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G18" s="59" t="n">
+      <c r="G18" s="58" t="n">
         <v>0.303743283462689</v>
       </c>
       <c r="H18" s="12" t="n">
@@ -6610,16 +6518,16 @@
       <c r="C19" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="59" t="n">
+      <c r="D19" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E19" s="59" t="n">
+      <c r="E19" s="58" t="n">
         <v>0.210861759257025</v>
       </c>
-      <c r="F19" s="59" t="n">
+      <c r="F19" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G19" s="59" t="n">
+      <c r="G19" s="58" t="n">
         <v>0.0612540842231622</v>
       </c>
       <c r="H19" s="12" t="n">
@@ -6636,16 +6544,16 @@
       <c r="C20" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="59" t="n">
+      <c r="D20" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E20" s="59" t="n">
+      <c r="E20" s="58" t="n">
         <v>0.0651467268611581</v>
       </c>
-      <c r="F20" s="59" t="n">
+      <c r="F20" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G20" s="59" t="n">
+      <c r="G20" s="58" t="n">
         <v>0.0160479077618239</v>
       </c>
       <c r="H20" s="12" t="n">
@@ -6662,16 +6570,16 @@
       <c r="C21" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="59" t="n">
+      <c r="D21" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E21" s="59" t="n">
+      <c r="E21" s="58" t="n">
         <v>0.0868707774996032</v>
       </c>
-      <c r="F21" s="59" t="n">
+      <c r="F21" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G21" s="59" t="n">
+      <c r="G21" s="58" t="n">
         <v>0.0120884832011234</v>
       </c>
       <c r="H21" s="12" t="n">
@@ -6688,16 +6596,16 @@
       <c r="C22" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="59" t="n">
+      <c r="D22" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E22" s="59" t="n">
+      <c r="E22" s="58" t="n">
         <v>0.0244754495118939</v>
       </c>
-      <c r="F22" s="59" t="n">
+      <c r="F22" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G22" s="59" t="n">
+      <c r="G22" s="58" t="n">
         <v>0.639923994439176</v>
       </c>
       <c r="H22" s="12" t="n">
@@ -6714,16 +6622,16 @@
       <c r="C23" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="59" t="n">
+      <c r="D23" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E23" s="59" t="n">
+      <c r="E23" s="58" t="n">
         <v>0.210861759257025</v>
       </c>
-      <c r="F23" s="59" t="n">
+      <c r="F23" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G23" s="59" t="n">
+      <c r="G23" s="58" t="n">
         <v>0.0397512889389382</v>
       </c>
       <c r="H23" s="12" t="n">
@@ -6740,16 +6648,16 @@
       <c r="C24" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="59" t="n">
+      <c r="D24" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E24" s="59" t="n">
+      <c r="E24" s="58" t="n">
         <v>0.0837350090280012</v>
       </c>
-      <c r="F24" s="59" t="n">
+      <c r="F24" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G24" s="59" t="n">
+      <c r="G24" s="58" t="n">
         <v>0.0127682005520273</v>
       </c>
       <c r="H24" s="12" t="n">
@@ -6884,16 +6792,16 @@
       <c r="C31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="59" t="n">
+      <c r="D31" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E31" s="59" t="n">
+      <c r="E31" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F31" s="59" t="n">
+      <c r="F31" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G31" s="59" t="n">
+      <c r="G31" s="58" t="n">
         <v>0.00925878452059151</v>
       </c>
       <c r="H31" s="12" t="n">
@@ -6958,16 +6866,16 @@
       <c r="C32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="59" t="n">
+      <c r="D32" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E32" s="59" t="n">
+      <c r="E32" s="58" t="n">
         <v>0.0724899446886559</v>
       </c>
-      <c r="F32" s="59" t="n">
+      <c r="F32" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G32" s="59" t="n">
+      <c r="G32" s="58" t="n">
         <v>0.0361522024181595</v>
       </c>
       <c r="H32" s="12" t="n">
@@ -7029,16 +6937,16 @@
       <c r="C33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="59" t="n">
+      <c r="D33" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E33" s="59" t="n">
+      <c r="E33" s="58" t="n">
         <v>0.0226904733321914</v>
       </c>
-      <c r="F33" s="59" t="n">
+      <c r="F33" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G33" s="59" t="n">
+      <c r="G33" s="58" t="n">
         <v>0.218175299958428</v>
       </c>
       <c r="H33" s="12" t="n">
@@ -7091,16 +6999,16 @@
       <c r="C34" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="59" t="n">
+      <c r="D34" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E34" s="59" t="n">
+      <c r="E34" s="58" t="n">
         <v>0.0011510591794668</v>
       </c>
-      <c r="F34" s="59" t="n">
+      <c r="F34" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G34" s="59" t="n">
+      <c r="G34" s="58" t="n">
         <v>0.0400960792629738</v>
       </c>
       <c r="H34" s="12" t="n">
@@ -7153,16 +7061,16 @@
       <c r="C35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="59" t="n">
+      <c r="D35" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E35" s="59" t="n">
+      <c r="E35" s="58" t="n">
         <v>0.0257013002986612</v>
       </c>
-      <c r="F35" s="59" t="n">
+      <c r="F35" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G35" s="59" t="n">
+      <c r="G35" s="58" t="n">
         <v>0.21940993894905</v>
       </c>
       <c r="H35" s="12" t="n">
@@ -7215,16 +7123,16 @@
       <c r="C36" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="59" t="n">
+      <c r="D36" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E36" s="59" t="n">
+      <c r="E36" s="58" t="n">
         <v>0.140993538248919</v>
       </c>
-      <c r="F36" s="59" t="n">
+      <c r="F36" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G36" s="59" t="n">
+      <c r="G36" s="58" t="n">
         <v>0.0504030260039234</v>
       </c>
       <c r="H36" s="12" t="n">
@@ -7277,16 +7185,16 @@
       <c r="C37" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="59" t="n">
+      <c r="D37" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E37" s="59" t="n">
+      <c r="E37" s="58" t="n">
         <v>0.123416120976476</v>
       </c>
-      <c r="F37" s="59" t="n">
+      <c r="F37" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G37" s="59" t="n">
+      <c r="G37" s="58" t="n">
         <v>0.345241762153261</v>
       </c>
       <c r="H37" s="12" t="n">
@@ -7339,16 +7247,16 @@
       <c r="C38" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="59" t="n">
+      <c r="D38" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E38" s="59" t="n">
+      <c r="E38" s="58" t="n">
         <v>0.16228499347261</v>
       </c>
-      <c r="F38" s="59" t="n">
+      <c r="F38" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G38" s="59" t="n">
+      <c r="G38" s="58" t="n">
         <v>0.0240866345688322</v>
       </c>
       <c r="H38" s="12" t="n">
@@ -7401,16 +7309,16 @@
       <c r="C39" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="59" t="n">
+      <c r="D39" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E39" s="59" t="n">
+      <c r="E39" s="58" t="n">
         <v>0.00612131525257037</v>
       </c>
-      <c r="F39" s="59" t="n">
+      <c r="F39" s="58" t="n">
         <v>0.212252344564235</v>
       </c>
-      <c r="G39" s="59" t="n">
+      <c r="G39" s="58" t="n">
         <v>0.788832163625664</v>
       </c>
       <c r="H39" s="12" t="n">
@@ -7463,16 +7371,16 @@
       <c r="C40" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="59" t="n">
+      <c r="D40" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E40" s="59" t="n">
+      <c r="E40" s="58" t="n">
         <v>0.486470319038246</v>
       </c>
-      <c r="F40" s="59" t="n">
+      <c r="F40" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G40" s="59" t="n">
+      <c r="G40" s="58" t="n">
         <v>0.370620466239571</v>
       </c>
       <c r="H40" s="12" t="n">
@@ -7525,16 +7433,16 @@
       <c r="C41" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="59" t="n">
+      <c r="D41" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E41" s="59" t="n">
+      <c r="E41" s="58" t="n">
         <v>0.260952941952193</v>
       </c>
-      <c r="F41" s="59" t="n">
+      <c r="F41" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G41" s="59" t="n">
+      <c r="G41" s="58" t="n">
         <v>0.19204267864621</v>
       </c>
       <c r="H41" s="12" t="n">
@@ -7587,16 +7495,16 @@
       <c r="C42" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="59" t="n">
+      <c r="D42" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E42" s="59" t="n">
+      <c r="E42" s="58" t="n">
         <v>0.018277172793558</v>
       </c>
-      <c r="F42" s="59" t="n">
+      <c r="F42" s="58" t="n">
         <v>0.212252344564235</v>
       </c>
-      <c r="G42" s="59" t="n">
+      <c r="G42" s="58" t="n">
         <v>0.211167836374336</v>
       </c>
       <c r="H42" s="12" t="n">
@@ -7649,16 +7557,16 @@
       <c r="C43" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="59" t="n">
+      <c r="D43" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E43" s="59" t="n">
+      <c r="E43" s="58" t="n">
         <v>0.486470319038246</v>
       </c>
-      <c r="F43" s="59" t="n">
+      <c r="F43" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G43" s="59" t="n">
+      <c r="G43" s="58" t="n">
         <v>0.0151181937747328</v>
       </c>
       <c r="H43" s="12" t="n">
@@ -7711,16 +7619,16 @@
       <c r="C44" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="59" t="n">
+      <c r="D44" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E44" s="59" t="n">
+      <c r="E44" s="58" t="n">
         <v>0.159948113706962</v>
       </c>
-      <c r="F44" s="59" t="n">
+      <c r="F44" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G44" s="59" t="n">
+      <c r="G44" s="58" t="n">
         <v>0.367788754145128</v>
       </c>
       <c r="H44" s="12" t="n">
@@ -7773,16 +7681,16 @@
       <c r="C45" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="59" t="n">
+      <c r="D45" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E45" s="59" t="n">
+      <c r="E45" s="58" t="n">
         <v>0.0617080609494767</v>
       </c>
-      <c r="F45" s="59" t="n">
+      <c r="F45" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G45" s="59" t="n">
+      <c r="G45" s="58" t="n">
         <v>0.0204371444826455</v>
       </c>
       <c r="H45" s="12" t="n">
@@ -7835,16 +7743,16 @@
       <c r="C46" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="59" t="n">
+      <c r="D46" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E46" s="59" t="n">
+      <c r="E46" s="58" t="n">
         <v>0.0151199881160101</v>
       </c>
-      <c r="F46" s="59" t="n">
+      <c r="F46" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G46" s="59" t="n">
+      <c r="G46" s="58" t="n">
         <v>0.326129843593374</v>
       </c>
       <c r="H46" s="12" t="n">
@@ -7897,16 +7805,16 @@
       <c r="C47" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="59" t="n">
+      <c r="D47" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E47" s="59" t="n">
+      <c r="E47" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F47" s="59" t="n">
+      <c r="F47" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G47" s="59" t="n">
+      <c r="G47" s="58" t="n">
         <v>0.0577889017409375</v>
       </c>
       <c r="H47" s="12" t="n">
@@ -7959,16 +7867,16 @@
       <c r="C48" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="59" t="n">
+      <c r="D48" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E48" s="59" t="n">
+      <c r="E48" s="58" t="n">
         <v>0.0644096465150297</v>
       </c>
-      <c r="F48" s="59" t="n">
+      <c r="F48" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G48" s="59" t="n">
+      <c r="G48" s="58" t="n">
         <v>0.0304612794129688</v>
       </c>
       <c r="H48" s="12" t="n">
@@ -8021,16 +7929,16 @@
       <c r="C49" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="59" t="n">
+      <c r="D49" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E49" s="59" t="n">
+      <c r="E49" s="58" t="n">
         <v>0.0853257009510521</v>
       </c>
-      <c r="F49" s="59" t="n">
+      <c r="F49" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G49" s="59" t="n">
+      <c r="G49" s="58" t="n">
         <v>0.0151676337065547</v>
       </c>
       <c r="H49" s="12" t="n">
@@ -8083,16 +7991,16 @@
       <c r="C50" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="59" t="n">
+      <c r="D50" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E50" s="59" t="n">
+      <c r="E50" s="58" t="n">
         <v>0.0244757404799017</v>
       </c>
-      <c r="F50" s="59" t="n">
+      <c r="F50" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G50" s="59" t="n">
+      <c r="G50" s="58" t="n">
         <v>0.618982458766511</v>
       </c>
       <c r="H50" s="12" t="n">
@@ -8145,16 +8053,16 @@
       <c r="C51" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="59" t="n">
+      <c r="D51" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E51" s="59" t="n">
+      <c r="E51" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F51" s="59" t="n">
+      <c r="F51" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G51" s="59" t="n">
+      <c r="G51" s="58" t="n">
         <v>0.0265347548694745</v>
       </c>
       <c r="H51" s="12" t="n">
@@ -8207,16 +8115,16 @@
       <c r="C52" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="59" t="n">
+      <c r="D52" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E52" s="59" t="n">
+      <c r="E52" s="58" t="n">
         <v>0.0821590927966329</v>
       </c>
-      <c r="F52" s="59" t="n">
+      <c r="F52" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G52" s="59" t="n">
+      <c r="G52" s="58" t="n">
         <v>0.0161041627866726</v>
       </c>
       <c r="H52" s="12" t="n">
@@ -8404,19 +8312,19 @@
       <c r="C59" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="60" t="n">
+      <c r="D59" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="E59" s="60" t="n">
+      <c r="E59" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="F59" s="60" t="n">
+      <c r="F59" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="G59" s="60" t="n">
+      <c r="G59" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="H59" s="62" t="n">
+      <c r="H59" s="61" t="n">
         <f aca="false">PRODUCT(D59:G59)</f>
         <v>1E-040</v>
       </c>
@@ -9909,10 +9817,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D34" activeCellId="1" sqref="AA22:AC22 D34"/>
+      <selection pane="bottomRight" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.67"/>
@@ -10001,16 +9909,16 @@
       <c r="C3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="59" t="n">
+      <c r="D3" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E3" s="59" t="n">
+      <c r="E3" s="58" t="n">
         <v>0.210861759257025</v>
       </c>
-      <c r="F3" s="59" t="n">
+      <c r="F3" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G3" s="59" t="n">
+      <c r="G3" s="58" t="n">
         <v>0.0281963311351873</v>
       </c>
       <c r="H3" s="12" t="n">
@@ -10027,16 +9935,16 @@
       <c r="C4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="59" t="n">
+      <c r="D4" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E4" s="59" t="n">
+      <c r="E4" s="58" t="n">
         <v>0.0735335673227738</v>
       </c>
-      <c r="F4" s="59" t="n">
+      <c r="F4" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G4" s="59" t="n">
+      <c r="G4" s="58" t="n">
         <v>0.0286633072660316</v>
       </c>
       <c r="H4" s="12" t="n">
@@ -10053,16 +9961,16 @@
       <c r="C5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="59" t="n">
+      <c r="D5" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E5" s="59" t="n">
+      <c r="E5" s="58" t="n">
         <v>0.0228855223722232</v>
       </c>
-      <c r="F5" s="59" t="n">
+      <c r="F5" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G5" s="59" t="n">
+      <c r="G5" s="58" t="n">
         <v>0.224497046207658</v>
       </c>
       <c r="H5" s="12" t="n">
@@ -10079,16 +9987,16 @@
       <c r="C6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="59" t="n">
+      <c r="D6" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E6" s="59" t="n">
+      <c r="E6" s="58" t="n">
         <v>0.00114281868130302</v>
       </c>
-      <c r="F6" s="59" t="n">
+      <c r="F6" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G6" s="58" t="n">
         <v>0.0317902134280087</v>
       </c>
       <c r="H6" s="12" t="n">
@@ -10105,16 +10013,16 @@
       <c r="C7" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="59" t="n">
+      <c r="D7" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E7" s="59" t="n">
+      <c r="E7" s="58" t="n">
         <v>0.0259099849043504</v>
       </c>
-      <c r="F7" s="59" t="n">
+      <c r="F7" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G7" s="59" t="n">
+      <c r="G7" s="58" t="n">
         <v>0.170482929007251</v>
       </c>
       <c r="H7" s="12" t="n">
@@ -10131,16 +10039,16 @@
       <c r="C8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="59" t="n">
+      <c r="D8" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E8" s="59" t="n">
+      <c r="E8" s="58" t="n">
         <v>0.136845768171156</v>
       </c>
-      <c r="F8" s="59" t="n">
+      <c r="F8" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G8" s="59" t="n">
+      <c r="G8" s="58" t="n">
         <v>0.0454264638752156</v>
       </c>
       <c r="H8" s="12" t="n">
@@ -10157,16 +10065,16 @@
       <c r="C9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="59" t="n">
+      <c r="D9" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E9" s="59" t="n">
+      <c r="E9" s="58" t="n">
         <v>0.118653561284674</v>
       </c>
-      <c r="F9" s="59" t="n">
+      <c r="F9" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G9" s="59" t="n">
+      <c r="G9" s="58" t="n">
         <v>0.320165242176175</v>
       </c>
       <c r="H9" s="12" t="n">
@@ -10183,16 +10091,16 @@
       <c r="C10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="59" t="n">
+      <c r="D10" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E10" s="59" t="n">
+      <c r="E10" s="58" t="n">
         <v>0.153804094680827</v>
       </c>
-      <c r="F10" s="59" t="n">
+      <c r="F10" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G10" s="59" t="n">
+      <c r="G10" s="58" t="n">
         <v>0.0220328768809411</v>
       </c>
       <c r="H10" s="12" t="n">
@@ -10209,16 +10117,16 @@
       <c r="C11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="59" t="n">
+      <c r="D11" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E11" s="59" t="n">
+      <c r="E11" s="58" t="n">
         <v>0.00614783090353588</v>
       </c>
-      <c r="F11" s="59" t="n">
+      <c r="F11" s="58" t="n">
         <v>0.199360444579827</v>
       </c>
-      <c r="G11" s="59" t="n">
+      <c r="G11" s="58" t="n">
         <v>0.790509720980781</v>
       </c>
       <c r="H11" s="12" t="n">
@@ -10235,16 +10143,16 @@
       <c r="C12" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="59" t="n">
+      <c r="D12" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E12" s="59" t="n">
+      <c r="E12" s="58" t="n">
         <v>0.493761281654635</v>
       </c>
-      <c r="F12" s="59" t="n">
+      <c r="F12" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G12" s="59" t="n">
+      <c r="G12" s="58" t="n">
         <v>0.418806456599763</v>
       </c>
       <c r="H12" s="12" t="n">
@@ -10261,16 +10169,16 @@
       <c r="C13" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="59" t="n">
+      <c r="D13" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E13" s="59" t="n">
+      <c r="E13" s="58" t="n">
         <v>0.262281256362572</v>
       </c>
-      <c r="F13" s="59" t="n">
+      <c r="F13" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G13" s="59" t="n">
+      <c r="G13" s="58" t="n">
         <v>0.182382265692303</v>
       </c>
       <c r="H13" s="12" t="n">
@@ -10287,16 +10195,16 @@
       <c r="C14" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="59" t="n">
+      <c r="D14" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E14" s="59" t="n">
+      <c r="E14" s="58" t="n">
         <v>0.0183777631771212</v>
       </c>
-      <c r="F14" s="59" t="n">
+      <c r="F14" s="58" t="n">
         <v>0.199360444579827</v>
       </c>
-      <c r="G14" s="59" t="n">
+      <c r="G14" s="58" t="n">
         <v>0.209490279019219</v>
       </c>
       <c r="H14" s="12" t="n">
@@ -10313,16 +10221,16 @@
       <c r="C15" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="59" t="n">
+      <c r="D15" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E15" s="59" t="n">
+      <c r="E15" s="58" t="n">
         <v>0.493761281654635</v>
       </c>
-      <c r="F15" s="59" t="n">
+      <c r="F15" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G15" s="59" t="n">
+      <c r="G15" s="58" t="n">
         <v>0.0119864737771605</v>
       </c>
       <c r="H15" s="12" t="n">
@@ -10339,16 +10247,16 @@
       <c r="C16" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="59" t="n">
+      <c r="D16" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E16" s="59" t="n">
+      <c r="E16" s="58" t="n">
         <v>0.163191675347039</v>
       </c>
-      <c r="F16" s="59" t="n">
+      <c r="F16" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G16" s="59" t="n">
+      <c r="G16" s="58" t="n">
         <v>0.410714384104541</v>
       </c>
       <c r="H16" s="12" t="n">
@@ -10365,16 +10273,16 @@
       <c r="C17" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="59" t="n">
+      <c r="D17" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E17" s="59" t="n">
+      <c r="E17" s="58" t="n">
         <v>0.0593267806423371</v>
       </c>
-      <c r="F17" s="59" t="n">
+      <c r="F17" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G17" s="59" t="n">
+      <c r="G17" s="58" t="n">
         <v>0.0192787672708235</v>
       </c>
       <c r="H17" s="12" t="n">
@@ -10391,16 +10299,16 @@
       <c r="C18" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="59" t="n">
+      <c r="D18" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E18" s="59" t="n">
+      <c r="E18" s="58" t="n">
         <v>0.0151015479568266</v>
       </c>
-      <c r="F18" s="59" t="n">
+      <c r="F18" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G18" s="59" t="n">
+      <c r="G18" s="58" t="n">
         <v>0.303743283462689</v>
       </c>
       <c r="H18" s="12" t="n">
@@ -10417,16 +10325,16 @@
       <c r="C19" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="59" t="n">
+      <c r="D19" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E19" s="59" t="n">
+      <c r="E19" s="58" t="n">
         <v>0.210861759257025</v>
       </c>
-      <c r="F19" s="59" t="n">
+      <c r="F19" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G19" s="59" t="n">
+      <c r="G19" s="58" t="n">
         <v>0.0612540842231622</v>
       </c>
       <c r="H19" s="12" t="n">
@@ -10443,16 +10351,16 @@
       <c r="C20" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="59" t="n">
+      <c r="D20" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E20" s="59" t="n">
+      <c r="E20" s="58" t="n">
         <v>0.0651467268611581</v>
       </c>
-      <c r="F20" s="59" t="n">
+      <c r="F20" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G20" s="59" t="n">
+      <c r="G20" s="58" t="n">
         <v>0.0160479077618239</v>
       </c>
       <c r="H20" s="12" t="n">
@@ -10469,16 +10377,16 @@
       <c r="C21" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="59" t="n">
+      <c r="D21" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E21" s="59" t="n">
+      <c r="E21" s="58" t="n">
         <v>0.0868707774996032</v>
       </c>
-      <c r="F21" s="59" t="n">
+      <c r="F21" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G21" s="59" t="n">
+      <c r="G21" s="58" t="n">
         <v>0.0120884832011234</v>
       </c>
       <c r="H21" s="12" t="n">
@@ -10495,16 +10403,16 @@
       <c r="C22" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="59" t="n">
+      <c r="D22" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E22" s="59" t="n">
+      <c r="E22" s="58" t="n">
         <v>0.0244754495118939</v>
       </c>
-      <c r="F22" s="59" t="n">
+      <c r="F22" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G22" s="59" t="n">
+      <c r="G22" s="58" t="n">
         <v>0.639923994439176</v>
       </c>
       <c r="H22" s="12" t="n">
@@ -10521,16 +10429,16 @@
       <c r="C23" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="59" t="n">
+      <c r="D23" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E23" s="59" t="n">
+      <c r="E23" s="58" t="n">
         <v>0.210861759257025</v>
       </c>
-      <c r="F23" s="59" t="n">
+      <c r="F23" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G23" s="59" t="n">
+      <c r="G23" s="58" t="n">
         <v>0.0397512889389382</v>
       </c>
       <c r="H23" s="12" t="n">
@@ -10547,16 +10455,16 @@
       <c r="C24" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="59" t="n">
+      <c r="D24" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E24" s="59" t="n">
+      <c r="E24" s="58" t="n">
         <v>0.0837350090280012</v>
       </c>
-      <c r="F24" s="59" t="n">
+      <c r="F24" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G24" s="59" t="n">
+      <c r="G24" s="58" t="n">
         <v>0.0127682005520273</v>
       </c>
       <c r="H24" s="12" t="n">
@@ -10691,16 +10599,16 @@
       <c r="C31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="59" t="n">
+      <c r="D31" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E31" s="59" t="n">
+      <c r="E31" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F31" s="59" t="n">
+      <c r="F31" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G31" s="59" t="n">
+      <c r="G31" s="58" t="n">
         <v>0.00925878452059151</v>
       </c>
       <c r="H31" s="12" t="n">
@@ -10765,16 +10673,16 @@
       <c r="C32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="59" t="n">
+      <c r="D32" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E32" s="59" t="n">
+      <c r="E32" s="58" t="n">
         <v>0.0724899446886559</v>
       </c>
-      <c r="F32" s="59" t="n">
+      <c r="F32" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G32" s="59" t="n">
+      <c r="G32" s="58" t="n">
         <v>0.0361522024181595</v>
       </c>
       <c r="H32" s="12" t="n">
@@ -10836,16 +10744,16 @@
       <c r="C33" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="59" t="n">
+      <c r="D33" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E33" s="59" t="n">
+      <c r="E33" s="58" t="n">
         <v>0.0226904733321914</v>
       </c>
-      <c r="F33" s="59" t="n">
+      <c r="F33" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G33" s="59" t="n">
+      <c r="G33" s="58" t="n">
         <v>0.218175299958428</v>
       </c>
       <c r="H33" s="12" t="n">
@@ -10898,16 +10806,16 @@
       <c r="C34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="59" t="n">
+      <c r="D34" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E34" s="59" t="n">
+      <c r="E34" s="58" t="n">
         <v>0.0011510591794668</v>
       </c>
-      <c r="F34" s="59" t="n">
+      <c r="F34" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G34" s="59" t="n">
+      <c r="G34" s="58" t="n">
         <v>0.0400960792629738</v>
       </c>
       <c r="H34" s="12" t="n">
@@ -10960,16 +10868,16 @@
       <c r="C35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="59" t="n">
+      <c r="D35" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E35" s="59" t="n">
+      <c r="E35" s="58" t="n">
         <v>0.0257013002986612</v>
       </c>
-      <c r="F35" s="59" t="n">
+      <c r="F35" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G35" s="59" t="n">
+      <c r="G35" s="58" t="n">
         <v>0.21940993894905</v>
       </c>
       <c r="H35" s="12" t="n">
@@ -11022,16 +10930,16 @@
       <c r="C36" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="59" t="n">
+      <c r="D36" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E36" s="59" t="n">
+      <c r="E36" s="58" t="n">
         <v>0.140993538248919</v>
       </c>
-      <c r="F36" s="59" t="n">
+      <c r="F36" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G36" s="59" t="n">
+      <c r="G36" s="58" t="n">
         <v>0.0504030260039234</v>
       </c>
       <c r="H36" s="12" t="n">
@@ -11084,16 +10992,16 @@
       <c r="C37" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="59" t="n">
+      <c r="D37" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E37" s="59" t="n">
+      <c r="E37" s="58" t="n">
         <v>0.123416120976476</v>
       </c>
-      <c r="F37" s="59" t="n">
+      <c r="F37" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G37" s="59" t="n">
+      <c r="G37" s="58" t="n">
         <v>0.345241762153261</v>
       </c>
       <c r="H37" s="12" t="n">
@@ -11146,16 +11054,16 @@
       <c r="C38" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="59" t="n">
+      <c r="D38" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E38" s="59" t="n">
+      <c r="E38" s="58" t="n">
         <v>0.16228499347261</v>
       </c>
-      <c r="F38" s="59" t="n">
+      <c r="F38" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G38" s="59" t="n">
+      <c r="G38" s="58" t="n">
         <v>0.0240866345688322</v>
       </c>
       <c r="H38" s="12" t="n">
@@ -11208,16 +11116,16 @@
       <c r="C39" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="59" t="n">
+      <c r="D39" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E39" s="59" t="n">
+      <c r="E39" s="58" t="n">
         <v>0.00612131525257037</v>
       </c>
-      <c r="F39" s="59" t="n">
+      <c r="F39" s="58" t="n">
         <v>0.212252344564235</v>
       </c>
-      <c r="G39" s="59" t="n">
+      <c r="G39" s="58" t="n">
         <v>0.788832163625664</v>
       </c>
       <c r="H39" s="12" t="n">
@@ -11270,16 +11178,16 @@
       <c r="C40" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="59" t="n">
+      <c r="D40" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E40" s="59" t="n">
+      <c r="E40" s="58" t="n">
         <v>0.486470319038246</v>
       </c>
-      <c r="F40" s="59" t="n">
+      <c r="F40" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G40" s="59" t="n">
+      <c r="G40" s="58" t="n">
         <v>0.370620466239571</v>
       </c>
       <c r="H40" s="12" t="n">
@@ -11332,16 +11240,16 @@
       <c r="C41" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="59" t="n">
+      <c r="D41" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E41" s="59" t="n">
+      <c r="E41" s="58" t="n">
         <v>0.260952941952193</v>
       </c>
-      <c r="F41" s="59" t="n">
+      <c r="F41" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G41" s="59" t="n">
+      <c r="G41" s="58" t="n">
         <v>0.19204267864621</v>
       </c>
       <c r="H41" s="12" t="n">
@@ -11394,16 +11302,16 @@
       <c r="C42" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="59" t="n">
+      <c r="D42" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E42" s="59" t="n">
+      <c r="E42" s="58" t="n">
         <v>0.018277172793558</v>
       </c>
-      <c r="F42" s="59" t="n">
+      <c r="F42" s="58" t="n">
         <v>0.212252344564235</v>
       </c>
-      <c r="G42" s="59" t="n">
+      <c r="G42" s="58" t="n">
         <v>0.211167836374336</v>
       </c>
       <c r="H42" s="12" t="n">
@@ -11456,16 +11364,16 @@
       <c r="C43" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="59" t="n">
+      <c r="D43" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E43" s="59" t="n">
+      <c r="E43" s="58" t="n">
         <v>0.486470319038246</v>
       </c>
-      <c r="F43" s="59" t="n">
+      <c r="F43" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G43" s="59" t="n">
+      <c r="G43" s="58" t="n">
         <v>0.0151181937747328</v>
       </c>
       <c r="H43" s="12" t="n">
@@ -11518,16 +11426,16 @@
       <c r="C44" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="59" t="n">
+      <c r="D44" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E44" s="59" t="n">
+      <c r="E44" s="58" t="n">
         <v>0.159948113706962</v>
       </c>
-      <c r="F44" s="59" t="n">
+      <c r="F44" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G44" s="59" t="n">
+      <c r="G44" s="58" t="n">
         <v>0.367788754145128</v>
       </c>
       <c r="H44" s="12" t="n">
@@ -11580,16 +11488,16 @@
       <c r="C45" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="59" t="n">
+      <c r="D45" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E45" s="59" t="n">
+      <c r="E45" s="58" t="n">
         <v>0.0617080609494767</v>
       </c>
-      <c r="F45" s="59" t="n">
+      <c r="F45" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G45" s="59" t="n">
+      <c r="G45" s="58" t="n">
         <v>0.0204371444826455</v>
       </c>
       <c r="H45" s="12" t="n">
@@ -11642,16 +11550,16 @@
       <c r="C46" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="59" t="n">
+      <c r="D46" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E46" s="59" t="n">
+      <c r="E46" s="58" t="n">
         <v>0.0151199881160101</v>
       </c>
-      <c r="F46" s="59" t="n">
+      <c r="F46" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G46" s="59" t="n">
+      <c r="G46" s="58" t="n">
         <v>0.326129843593374</v>
       </c>
       <c r="H46" s="12" t="n">
@@ -11704,16 +11612,16 @@
       <c r="C47" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="59" t="n">
+      <c r="D47" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E47" s="59" t="n">
+      <c r="E47" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F47" s="59" t="n">
+      <c r="F47" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G47" s="59" t="n">
+      <c r="G47" s="58" t="n">
         <v>0.0577889017409375</v>
       </c>
       <c r="H47" s="12" t="n">
@@ -11766,16 +11674,16 @@
       <c r="C48" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="59" t="n">
+      <c r="D48" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E48" s="59" t="n">
+      <c r="E48" s="58" t="n">
         <v>0.0644096465150297</v>
       </c>
-      <c r="F48" s="59" t="n">
+      <c r="F48" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G48" s="59" t="n">
+      <c r="G48" s="58" t="n">
         <v>0.0304612794129688</v>
       </c>
       <c r="H48" s="12" t="n">
@@ -11828,16 +11736,16 @@
       <c r="C49" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="59" t="n">
+      <c r="D49" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E49" s="59" t="n">
+      <c r="E49" s="58" t="n">
         <v>0.0853257009510521</v>
       </c>
-      <c r="F49" s="59" t="n">
+      <c r="F49" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G49" s="59" t="n">
+      <c r="G49" s="58" t="n">
         <v>0.0151676337065547</v>
       </c>
       <c r="H49" s="12" t="n">
@@ -11890,16 +11798,16 @@
       <c r="C50" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="59" t="n">
+      <c r="D50" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E50" s="59" t="n">
+      <c r="E50" s="58" t="n">
         <v>0.0244757404799017</v>
       </c>
-      <c r="F50" s="59" t="n">
+      <c r="F50" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G50" s="59" t="n">
+      <c r="G50" s="58" t="n">
         <v>0.618982458766511</v>
       </c>
       <c r="H50" s="12" t="n">
@@ -11952,16 +11860,16 @@
       <c r="C51" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="59" t="n">
+      <c r="D51" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E51" s="59" t="n">
+      <c r="E51" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F51" s="59" t="n">
+      <c r="F51" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G51" s="59" t="n">
+      <c r="G51" s="58" t="n">
         <v>0.0265347548694745</v>
       </c>
       <c r="H51" s="12" t="n">
@@ -12014,16 +11922,16 @@
       <c r="C52" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="59" t="n">
+      <c r="D52" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E52" s="59" t="n">
+      <c r="E52" s="58" t="n">
         <v>0.0821590927966329</v>
       </c>
-      <c r="F52" s="59" t="n">
+      <c r="F52" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G52" s="59" t="n">
+      <c r="G52" s="58" t="n">
         <v>0.0161041627866726</v>
       </c>
       <c r="H52" s="12" t="n">
@@ -12211,19 +12119,19 @@
       <c r="C59" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="67" t="n">
+      <c r="D59" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="68" t="n">
+      <c r="H59" s="67" t="n">
         <f aca="false">PRODUCT(D59:G59)</f>
         <v>0</v>
       </c>
@@ -12239,7 +12147,7 @@
         <f aca="false">(H82-H54) / (LN(H82) - LN(H54))</f>
         <v>511.173157464617</v>
       </c>
-      <c r="N59" s="68" t="n">
+      <c r="N59" s="67" t="n">
         <v>0</v>
       </c>
       <c r="O59" s="13" t="n">
@@ -12271,7 +12179,7 @@
         <f aca="false">$N59*S59</f>
         <v>0</v>
       </c>
-      <c r="Y59" s="67" t="n">
+      <c r="Y59" s="66" t="n">
         <f aca="false">-$H31</f>
         <v>-6.41577907883252</v>
       </c>
@@ -13708,15 +13616,15 @@
   </sheetPr>
   <dimension ref="A1:AI58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="X6" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AE35" activeCellId="1" sqref="AA22:AC22 AE35"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AE35" activeCellId="0" sqref="AE35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.67"/>
@@ -13879,16 +13787,16 @@
       <c r="C5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="59" t="n">
+      <c r="D5" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E5" s="59" t="n">
+      <c r="E5" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F5" s="59" t="n">
+      <c r="F5" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G5" s="59" t="n">
+      <c r="G5" s="58" t="n">
         <v>0.00925878452059151</v>
       </c>
       <c r="H5" s="12" t="n">
@@ -13901,16 +13809,16 @@
       <c r="C6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="59" t="n">
+      <c r="D6" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E6" s="59" t="n">
+      <c r="E6" s="58" t="n">
         <v>0.0724899446886559</v>
       </c>
-      <c r="F6" s="59" t="n">
+      <c r="F6" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G6" s="58" t="n">
         <v>0.0361522024181595</v>
       </c>
       <c r="H6" s="12" t="n">
@@ -14011,20 +13919,20 @@
       <c r="C13" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="67" t="n">
+      <c r="D13" s="66" t="n">
         <v>7962.92116781787</v>
       </c>
-      <c r="E13" s="67" t="n">
+      <c r="E13" s="66" t="n">
         <f aca="false">E5</f>
         <v>0.168054744834221</v>
       </c>
-      <c r="F13" s="67" t="n">
+      <c r="F13" s="66" t="n">
         <v>0.499364511152545</v>
       </c>
-      <c r="G13" s="69" t="n">
+      <c r="G13" s="68" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="68" t="n">
+      <c r="H13" s="67" t="n">
         <f aca="false">PRODUCT(D13:G13)</f>
         <v>0</v>
       </c>
@@ -14040,7 +13948,7 @@
         <f aca="false">(H16-H8) / (LN(H16) - LN(H8))</f>
         <v>4.09944689962766</v>
       </c>
-      <c r="N13" s="68" t="n">
+      <c r="N13" s="67" t="n">
         <v>0</v>
       </c>
       <c r="O13" s="13" t="n">
@@ -14072,7 +13980,7 @@
         <f aca="false">$N13*S13</f>
         <v>-0</v>
       </c>
-      <c r="Y13" s="67" t="n">
+      <c r="Y13" s="66" t="n">
         <f aca="false">-$H5</f>
         <v>-6.41577907883252</v>
       </c>
@@ -14231,19 +14139,19 @@
         <f aca="false">SUM(V16:Y16)</f>
         <v>-6.32845199185123</v>
       </c>
-      <c r="AB16" s="59" t="n">
+      <c r="AB16" s="58" t="n">
         <f aca="false">EXP(V16)^(1/$M13)</f>
         <v>1.0027330115322</v>
       </c>
-      <c r="AC16" s="59" t="n">
+      <c r="AC16" s="58" t="n">
         <f aca="false">EXP(W16)^(1/$M13)</f>
         <v>1.14658909306255</v>
       </c>
-      <c r="AD16" s="59" t="n">
+      <c r="AD16" s="58" t="n">
         <f aca="false">EXP(X16)^(1/$M13)</f>
         <v>0.88960688388347</v>
       </c>
-      <c r="AE16" s="59" t="n">
+      <c r="AE16" s="58" t="n">
         <f aca="false">EXP(Y16)^(1/$M13)</f>
         <v>0.208820901522793</v>
       </c>
@@ -14451,16 +14359,16 @@
       <c r="C24" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="59" t="n">
+      <c r="D24" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E24" s="59" t="n">
+      <c r="E24" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F24" s="59" t="n">
+      <c r="F24" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G24" s="59" t="n">
+      <c r="G24" s="58" t="n">
         <v>0.00925878452059151</v>
       </c>
       <c r="H24" s="12" t="n">
@@ -14492,16 +14400,16 @@
       <c r="C25" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="59" t="n">
+      <c r="D25" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E25" s="59" t="n">
+      <c r="E25" s="58" t="n">
         <v>0.0724899446886559</v>
       </c>
-      <c r="F25" s="59" t="n">
+      <c r="F25" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G25" s="59" t="n">
+      <c r="G25" s="58" t="n">
         <v>0.0361522024181595</v>
       </c>
       <c r="H25" s="12" t="n">
@@ -14541,7 +14449,7 @@
       <c r="N26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="70"/>
+      <c r="O26" s="69"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
@@ -14576,10 +14484,10 @@
       <c r="N28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
       <c r="Z28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14592,13 +14500,12 @@
       <c r="G30" s="2"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
       <c r="T30" s="2" t="s">
         <v>3</v>
       </c>
@@ -14632,13 +14539,9 @@
         <v>44</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
       <c r="T31" s="3" t="s">
         <v>41</v>
       </c>
@@ -14683,20 +14586,20 @@
       <c r="C32" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="67" t="n">
+      <c r="D32" s="66" t="n">
         <v>7962.92116781787</v>
       </c>
-      <c r="E32" s="67" t="n">
+      <c r="E32" s="66" t="n">
         <f aca="false">E24</f>
         <v>0.168054744834221</v>
       </c>
-      <c r="F32" s="67" t="n">
+      <c r="F32" s="66" t="n">
         <v>0.499364511152545</v>
       </c>
-      <c r="G32" s="76" t="n">
+      <c r="G32" s="71" t="n">
         <v>0</v>
       </c>
-      <c r="H32" s="68" t="n">
+      <c r="H32" s="67" t="n">
         <f aca="false">PRODUCT(D32:G32)</f>
         <v>0</v>
       </c>
@@ -14712,7 +14615,7 @@
         <f aca="false">+H32/H35</f>
         <v>0</v>
       </c>
-      <c r="N32" s="68" t="n">
+      <c r="N32" s="67" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="11" t="n">
@@ -14752,7 +14655,7 @@
         <f aca="false">$N32*V32</f>
         <v>-0</v>
       </c>
-      <c r="AB32" s="67" t="n">
+      <c r="AB32" s="66" t="n">
         <f aca="false">-$H24</f>
         <v>-6.41577907883252</v>
       </c>
@@ -14806,7 +14709,7 @@
         <f aca="false">+H33/H35</f>
         <v>1</v>
       </c>
-      <c r="N33" s="77" t="n">
+      <c r="N33" s="32" t="n">
         <f aca="false">+(M33-M25)/(LN(M33)-LN(M25))</f>
         <v>0.499580468223984</v>
       </c>
@@ -14928,10 +14831,10 @@
       <c r="R35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
       <c r="Y35" s="7" t="n">
         <f aca="false">SUM(Y32:Y33)</f>
         <v>0.027388216090411</v>
@@ -14987,10 +14890,10 @@
       <c r="N36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T36" s="75"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="75"/>
-      <c r="W36" s="75"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
       <c r="Y36" s="2" t="s">
         <v>18</v>
       </c>
@@ -15010,19 +14913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="74"/>
-      <c r="AC37" s="74"/>
-      <c r="AD37" s="74"/>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="74"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="74"/>
-      <c r="AI37" s="74"/>
-    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="2" t="s">
@@ -15178,19 +15069,19 @@
       <c r="C43" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="67" t="n">
+      <c r="D43" s="66" t="n">
         <v>7962.92116781787</v>
       </c>
-      <c r="E43" s="59" t="n">
+      <c r="E43" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F43" s="59" t="n">
+      <c r="F43" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G43" s="78" t="n">
+      <c r="G43" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="H43" s="68" t="n">
+      <c r="H43" s="67" t="n">
         <f aca="false">PRODUCT(D43:G43)</f>
         <v>0</v>
       </c>
@@ -15219,7 +15110,7 @@
       <c r="C44" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="67" t="n">
+      <c r="D44" s="66" t="n">
         <v>7962.92116781787</v>
       </c>
       <c r="E44" s="7" t="n">
@@ -15268,7 +15159,7 @@
       <c r="N45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O45" s="70"/>
+      <c r="O45" s="69"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
@@ -15303,10 +15194,10 @@
       <c r="N47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
+      <c r="V47" s="70"/>
+      <c r="W47" s="70"/>
+      <c r="X47" s="70"/>
+      <c r="Y47" s="70"/>
       <c r="Z47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15319,13 +15210,12 @@
       <c r="G49" s="2"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="74"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="75"/>
-      <c r="S49" s="75"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="4"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
       <c r="T49" s="2" t="s">
         <v>3</v>
       </c>
@@ -15359,13 +15249,9 @@
         <v>44</v>
       </c>
       <c r="H50" s="3"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="74"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
       <c r="T50" s="3" t="s">
         <v>41</v>
       </c>
@@ -15410,19 +15296,19 @@
       <c r="C51" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="59" t="n">
+      <c r="D51" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E51" s="59" t="n">
+      <c r="E51" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F51" s="59" t="n">
+      <c r="F51" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G51" s="59" t="n">
+      <c r="G51" s="58" t="n">
         <v>0.00925878452059151</v>
       </c>
-      <c r="H51" s="68" t="n">
+      <c r="H51" s="67" t="n">
         <f aca="false">PRODUCT(D51:G51)</f>
         <v>6.41577907883252</v>
       </c>
@@ -15438,7 +15324,7 @@
         <f aca="false">+H51/H54</f>
         <v>0.797269593801066</v>
       </c>
-      <c r="N51" s="68" t="n">
+      <c r="N51" s="67" t="n">
         <v>0</v>
       </c>
       <c r="P51" s="11" t="n">
@@ -15478,7 +15364,7 @@
         <f aca="false">$N51*V51</f>
         <v>0</v>
       </c>
-      <c r="AB51" s="67" t="n">
+      <c r="AB51" s="66" t="n">
         <f aca="false">$H51</f>
         <v>6.41577907883252</v>
       </c>
@@ -15506,16 +15392,16 @@
       <c r="C52" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="59" t="n">
+      <c r="D52" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E52" s="59" t="n">
+      <c r="E52" s="58" t="n">
         <v>0.0724899446886559</v>
       </c>
-      <c r="F52" s="59" t="n">
+      <c r="F52" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G52" s="59" t="n">
+      <c r="G52" s="58" t="n">
         <v>0.0361522024181595</v>
       </c>
       <c r="H52" s="8" t="n">
@@ -15532,7 +15418,7 @@
         <f aca="false">+H52/H54</f>
         <v>0.202730406198934</v>
       </c>
-      <c r="N52" s="77" t="n">
+      <c r="N52" s="32" t="n">
         <f aca="false">+(M52-M44)/(LN(M52)-LN(M44))</f>
         <v>0.499580468223984</v>
       </c>
@@ -15654,10 +15540,10 @@
       <c r="R54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="72"/>
-      <c r="W54" s="72"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
       <c r="Y54" s="7" t="n">
         <f aca="false">SUM(Y51:Y52)</f>
         <v>-0.027388216090411</v>
@@ -15713,10 +15599,10 @@
       <c r="N55" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T55" s="75"/>
-      <c r="U55" s="75"/>
-      <c r="V55" s="75"/>
-      <c r="W55" s="75"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
       <c r="Y55" s="2" t="s">
         <v>18</v>
       </c>
@@ -15736,24 +15622,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T56" s="74"/>
-      <c r="U56" s="74"/>
-      <c r="AA56" s="74"/>
-      <c r="AB56" s="74"/>
-      <c r="AC56" s="74"/>
-      <c r="AD56" s="74"/>
-      <c r="AE56" s="74"/>
-      <c r="AF56" s="74"/>
-      <c r="AG56" s="74"/>
-      <c r="AH56" s="74"/>
-      <c r="AI56" s="74"/>
-    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="79"/>
+      <c r="D57" s="73"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="79"/>
+      <c r="D58" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -15835,17 +15709,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD38"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE34" activeCellId="1" sqref="AA22:AC22 AE34"/>
+      <selection pane="bottomRight" activeCell="AE34" activeCellId="0" sqref="AE34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.67"/>
@@ -16009,16 +15883,16 @@
       <c r="C5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="59" t="n">
+      <c r="D5" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E5" s="59" t="n">
+      <c r="E5" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F5" s="59" t="n">
+      <c r="F5" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G5" s="59" t="n">
+      <c r="G5" s="58" t="n">
         <v>0.00925878452059151</v>
       </c>
       <c r="H5" s="12" t="n">
@@ -16043,16 +15917,16 @@
       <c r="C6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="59" t="n">
+      <c r="D6" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E6" s="59" t="n">
+      <c r="E6" s="58" t="n">
         <v>0.0724899446886559</v>
       </c>
-      <c r="F6" s="59" t="n">
+      <c r="F6" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G6" s="58" t="n">
         <v>0.0361522024181595</v>
       </c>
       <c r="H6" s="12" t="n">
@@ -16084,7 +15958,7 @@
         <v>13</v>
       </c>
       <c r="N7" s="19"/>
-      <c r="O7" s="70"/>
+      <c r="O7" s="69"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
@@ -16109,10 +15983,10 @@
       <c r="H9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
       <c r="Z9" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16204,19 +16078,19 @@
       <c r="C13" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="60" t="n">
+      <c r="D13" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="E13" s="60" t="n">
+      <c r="E13" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="F13" s="60" t="n">
+      <c r="F13" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="G13" s="60" t="n">
+      <c r="G13" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="H13" s="62" t="n">
+      <c r="H13" s="61" t="n">
         <f aca="false">PRODUCT(D13:G13)</f>
         <v>1E-040</v>
       </c>
@@ -16645,16 +16519,16 @@
       <c r="C23" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="59" t="n">
+      <c r="D23" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E23" s="59" t="n">
+      <c r="E23" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F23" s="59" t="n">
+      <c r="F23" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G23" s="59" t="n">
+      <c r="G23" s="58" t="n">
         <v>0.00925878452059151</v>
       </c>
       <c r="H23" s="12" t="n">
@@ -16686,16 +16560,16 @@
       <c r="C24" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="59" t="n">
+      <c r="D24" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E24" s="59" t="n">
+      <c r="E24" s="58" t="n">
         <v>0.0724899446886559</v>
       </c>
-      <c r="F24" s="59" t="n">
+      <c r="F24" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G24" s="59" t="n">
+      <c r="G24" s="58" t="n">
         <v>0.0361522024181595</v>
       </c>
       <c r="H24" s="12" t="n">
@@ -16735,7 +16609,7 @@
       <c r="N25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="70"/>
+      <c r="O25" s="69"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
@@ -16770,10 +16644,10 @@
       <c r="N27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
       <c r="Z27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16786,13 +16660,12 @@
       <c r="G29" s="2"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
       <c r="T29" s="2" t="s">
         <v>3</v>
       </c>
@@ -16826,13 +16699,9 @@
         <v>44</v>
       </c>
       <c r="H30" s="3"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
       <c r="T30" s="3" t="s">
         <v>41</v>
       </c>
@@ -16869,27 +16738,6 @@
       <c r="AH30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AJ30" s="74"/>
-      <c r="AK30" s="74"/>
-      <c r="AL30" s="74"/>
-      <c r="AM30" s="74"/>
-      <c r="AN30" s="74"/>
-      <c r="AO30" s="74"/>
-      <c r="AP30" s="74"/>
-      <c r="AQ30" s="74"/>
-      <c r="AR30" s="74"/>
-      <c r="AS30" s="74"/>
-      <c r="AT30" s="74"/>
-      <c r="AU30" s="74"/>
-      <c r="AV30" s="74"/>
-      <c r="AW30" s="74"/>
-      <c r="AX30" s="74"/>
-      <c r="AY30" s="74"/>
-      <c r="AZ30" s="74"/>
-      <c r="BA30" s="74"/>
-      <c r="BB30" s="74"/>
-      <c r="BC30" s="74"/>
-      <c r="BD30" s="74"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -16898,19 +16746,19 @@
       <c r="C31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="60" t="n">
+      <c r="D31" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="E31" s="60" t="n">
+      <c r="E31" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="F31" s="60" t="n">
+      <c r="F31" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="G31" s="60" t="n">
+      <c r="G31" s="59" t="n">
         <v>1E-010</v>
       </c>
-      <c r="H31" s="62" t="n">
+      <c r="H31" s="61" t="n">
         <f aca="false">PRODUCT(D31:G31)</f>
         <v>1E-040</v>
       </c>
@@ -16926,7 +16774,7 @@
         <f aca="false">+H31/H34</f>
         <v>5.81822590979548E-041</v>
       </c>
-      <c r="N31" s="77" t="n">
+      <c r="N31" s="32" t="n">
         <f aca="false">+(M31-M23)/(LN(M31)-LN(M23))</f>
         <v>0.00862673803199936</v>
       </c>
@@ -16990,27 +16838,8 @@
         <f aca="false">+W31*$Q31</f>
         <v>-0.311380909481618</v>
       </c>
-      <c r="AJ31" s="72"/>
-      <c r="AK31" s="72"/>
-      <c r="AL31" s="74"/>
-      <c r="AM31" s="74"/>
-      <c r="AN31" s="74"/>
-      <c r="AO31" s="74"/>
-      <c r="AP31" s="74"/>
-      <c r="AQ31" s="74"/>
-      <c r="AR31" s="74"/>
-      <c r="AS31" s="74"/>
-      <c r="AT31" s="74"/>
-      <c r="AU31" s="74"/>
-      <c r="AV31" s="74"/>
-      <c r="AW31" s="74"/>
-      <c r="AX31" s="74"/>
-      <c r="AY31" s="74"/>
-      <c r="AZ31" s="74"/>
-      <c r="BA31" s="74"/>
-      <c r="BB31" s="74"/>
-      <c r="BC31" s="74"/>
-      <c r="BD31" s="74"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="24" t="s">
@@ -17045,7 +16874,7 @@
         <f aca="false">+H32/H34</f>
         <v>1</v>
       </c>
-      <c r="N32" s="77" t="n">
+      <c r="N32" s="32" t="n">
         <f aca="false">+(M32-M24)/(LN(M32)-LN(M24))</f>
         <v>0.499580468223984</v>
       </c>
@@ -17105,27 +16934,8 @@
         <f aca="false">+W32*$Q32</f>
         <v>-0.00299114033101476</v>
       </c>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="72"/>
-      <c r="AL32" s="74"/>
-      <c r="AM32" s="74"/>
-      <c r="AN32" s="74"/>
-      <c r="AO32" s="74"/>
-      <c r="AP32" s="74"/>
-      <c r="AQ32" s="74"/>
-      <c r="AR32" s="74"/>
-      <c r="AS32" s="74"/>
-      <c r="AT32" s="74"/>
-      <c r="AU32" s="74"/>
-      <c r="AV32" s="74"/>
-      <c r="AW32" s="74"/>
-      <c r="AX32" s="74"/>
-      <c r="AY32" s="74"/>
-      <c r="AZ32" s="74"/>
-      <c r="BA32" s="74"/>
-      <c r="BB32" s="74"/>
-      <c r="BC32" s="74"/>
-      <c r="BD32" s="74"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="24"/>
@@ -17168,27 +16978,8 @@
       <c r="AF33" s="14"/>
       <c r="AG33" s="14"/>
       <c r="AH33" s="14"/>
-      <c r="AJ33" s="80"/>
-      <c r="AK33" s="80"/>
-      <c r="AL33" s="74"/>
-      <c r="AM33" s="74"/>
-      <c r="AN33" s="74"/>
-      <c r="AO33" s="74"/>
-      <c r="AP33" s="74"/>
-      <c r="AQ33" s="74"/>
-      <c r="AR33" s="74"/>
-      <c r="AS33" s="74"/>
-      <c r="AT33" s="74"/>
-      <c r="AU33" s="74"/>
-      <c r="AV33" s="74"/>
-      <c r="AW33" s="74"/>
-      <c r="AX33" s="74"/>
-      <c r="AY33" s="74"/>
-      <c r="AZ33" s="74"/>
-      <c r="BA33" s="74"/>
-      <c r="BB33" s="74"/>
-      <c r="BC33" s="74"/>
-      <c r="BD33" s="74"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="3"/>
@@ -17209,10 +17000,10 @@
       <c r="R34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
       <c r="Y34" s="7" t="n">
         <f aca="false">SUM(Y31:Y32)</f>
         <v>-2.19999555421652</v>
@@ -17253,27 +17044,9 @@
         <f aca="false">PRODUCT(AE34:AH34)</f>
         <v>0.213582280976715</v>
       </c>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="72"/>
-      <c r="AL34" s="81"/>
-      <c r="AM34" s="74"/>
-      <c r="AN34" s="74"/>
-      <c r="AO34" s="74"/>
-      <c r="AP34" s="74"/>
-      <c r="AQ34" s="74"/>
-      <c r="AR34" s="74"/>
-      <c r="AS34" s="74"/>
-      <c r="AT34" s="74"/>
-      <c r="AU34" s="74"/>
-      <c r="AV34" s="74"/>
-      <c r="AW34" s="74"/>
-      <c r="AX34" s="74"/>
-      <c r="AY34" s="74"/>
-      <c r="AZ34" s="74"/>
-      <c r="BA34" s="74"/>
-      <c r="BB34" s="74"/>
-      <c r="BC34" s="74"/>
-      <c r="BD34" s="74"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="3"/>
@@ -17289,10 +17062,10 @@
       <c r="N35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T35" s="75"/>
-      <c r="U35" s="75"/>
-      <c r="V35" s="75"/>
-      <c r="W35" s="75"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
       <c r="Y35" s="2" t="s">
         <v>18</v>
       </c>
@@ -17311,135 +17084,13 @@
       <c r="AI35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AJ35" s="80"/>
-      <c r="AK35" s="80"/>
-      <c r="AL35" s="72"/>
-      <c r="AM35" s="74"/>
-      <c r="AN35" s="74"/>
-      <c r="AO35" s="74"/>
-      <c r="AP35" s="74"/>
-      <c r="AQ35" s="74"/>
-      <c r="AR35" s="74"/>
-      <c r="AS35" s="74"/>
-      <c r="AT35" s="74"/>
-      <c r="AU35" s="74"/>
-      <c r="AV35" s="74"/>
-      <c r="AW35" s="74"/>
-      <c r="AX35" s="74"/>
-      <c r="AY35" s="74"/>
-      <c r="AZ35" s="74"/>
-      <c r="BA35" s="74"/>
-      <c r="BB35" s="74"/>
-      <c r="BC35" s="74"/>
-      <c r="BD35" s="74"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T36" s="74"/>
-      <c r="U36" s="74"/>
-      <c r="AA36" s="74"/>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="74"/>
-      <c r="AD36" s="74"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="74"/>
-      <c r="AG36" s="74"/>
-      <c r="AH36" s="74"/>
-      <c r="AI36" s="74"/>
-      <c r="AJ36" s="74"/>
-      <c r="AK36" s="74"/>
-      <c r="AL36" s="74"/>
-      <c r="AM36" s="74"/>
-      <c r="AN36" s="74"/>
-      <c r="AO36" s="74"/>
-      <c r="AP36" s="74"/>
-      <c r="AQ36" s="74"/>
-      <c r="AR36" s="74"/>
-      <c r="AS36" s="74"/>
-      <c r="AT36" s="74"/>
-      <c r="AU36" s="74"/>
-      <c r="AV36" s="74"/>
-      <c r="AW36" s="74"/>
-      <c r="AX36" s="74"/>
-      <c r="AY36" s="74"/>
-      <c r="AZ36" s="74"/>
-      <c r="BA36" s="74"/>
-      <c r="BB36" s="74"/>
-      <c r="BC36" s="74"/>
-      <c r="BD36" s="74"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="74"/>
-      <c r="AC37" s="74"/>
-      <c r="AD37" s="74"/>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="74"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="74"/>
-      <c r="AI37" s="74"/>
-      <c r="AJ37" s="74"/>
-      <c r="AK37" s="74"/>
-      <c r="AL37" s="74"/>
-      <c r="AM37" s="74"/>
-      <c r="AN37" s="74"/>
-      <c r="AO37" s="74"/>
-      <c r="AP37" s="74"/>
-      <c r="AQ37" s="74"/>
-      <c r="AR37" s="74"/>
-      <c r="AS37" s="74"/>
-      <c r="AT37" s="74"/>
-      <c r="AU37" s="74"/>
-      <c r="AV37" s="74"/>
-      <c r="AW37" s="74"/>
-      <c r="AX37" s="74"/>
-      <c r="AY37" s="74"/>
-      <c r="AZ37" s="74"/>
-      <c r="BA37" s="74"/>
-      <c r="BB37" s="74"/>
-      <c r="BC37" s="74"/>
-      <c r="BD37" s="74"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T38" s="74"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
-      <c r="X38" s="74"/>
-      <c r="Y38" s="74"/>
-      <c r="Z38" s="74"/>
-      <c r="AA38" s="74"/>
-      <c r="AB38" s="74"/>
-      <c r="AC38" s="74"/>
-      <c r="AD38" s="74"/>
-      <c r="AE38" s="74"/>
-      <c r="AF38" s="74"/>
-      <c r="AG38" s="74"/>
-      <c r="AH38" s="74"/>
-      <c r="AI38" s="74"/>
-      <c r="AJ38" s="74"/>
-      <c r="AK38" s="74"/>
-      <c r="AL38" s="74"/>
-      <c r="AM38" s="74"/>
-      <c r="AN38" s="74"/>
-      <c r="AO38" s="74"/>
-      <c r="AP38" s="74"/>
-      <c r="AQ38" s="74"/>
-      <c r="AR38" s="74"/>
-      <c r="AS38" s="74"/>
-      <c r="AT38" s="74"/>
-      <c r="AU38" s="74"/>
-      <c r="AV38" s="74"/>
-      <c r="AW38" s="74"/>
-      <c r="AX38" s="74"/>
-      <c r="AY38" s="74"/>
-      <c r="AZ38" s="74"/>
-      <c r="BA38" s="74"/>
-      <c r="BB38" s="74"/>
-      <c r="BC38" s="74"/>
-      <c r="BD38" s="74"/>
-    </row>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="43">
     <mergeCell ref="D1:G1"/>
@@ -17508,10 +17159,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="AF54" activeCellId="1" sqref="AA22:AC22 AF54"/>
+      <selection pane="bottomRight" activeCell="AF54" activeCellId="0" sqref="AF54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.67"/>
@@ -19725,19 +19376,19 @@
         <f aca="false">SUM(V54:Y54)</f>
         <v>898.416515218118</v>
       </c>
-      <c r="AB54" s="59" t="n">
+      <c r="AB54" s="58" t="n">
         <f aca="false">EXP(V54/$M31)</f>
         <v>1.03895968648168</v>
       </c>
-      <c r="AC54" s="59" t="n">
+      <c r="AC54" s="58" t="n">
         <f aca="false">EXP(W54/$M31)</f>
         <v>0.999208325384331</v>
       </c>
-      <c r="AD54" s="59" t="n">
+      <c r="AD54" s="58" t="n">
         <f aca="false">EXP(X54/$M31)</f>
         <v>1.00139587740977</v>
       </c>
-      <c r="AE54" s="59" t="n">
+      <c r="AE54" s="58" t="n">
         <f aca="false">EXP(Y54/$M31)</f>
         <v>1.00846414044163</v>
       </c>
@@ -19803,10 +19454,10 @@
   <dimension ref="A1:AR54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X19" activeCellId="1" sqref="AA22:AC22 X19"/>
+      <selection pane="topLeft" activeCell="X19" activeCellId="0" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.16"/>
@@ -21751,11 +21402,11 @@
   </sheetPr>
   <dimension ref="A1:AU54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA22" activeCellId="0" sqref="AA22:AC22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA22" activeCellId="0" sqref="AA22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.16"/>
@@ -23830,11 +23481,11 @@
   </sheetPr>
   <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N44" activeCellId="1" sqref="AA22:AC22 N44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N44" activeCellId="0" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.16"/>
@@ -26017,11 +25668,11 @@
   </sheetPr>
   <dimension ref="A1:AU1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N24" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ44" activeCellId="1" sqref="AA22:AC22 AJ44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ44" activeCellId="0" sqref="AJ44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.16"/>
@@ -28326,11 +27977,11 @@
   </sheetPr>
   <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF20" activeCellId="1" sqref="AA22:AC22 AF20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF20" activeCellId="0" sqref="AF20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.16"/>
@@ -29633,8 +29284,8 @@
       </c>
       <c r="AJ42" s="19"/>
       <c r="AK42" s="19"/>
-      <c r="AM42" s="56"/>
-      <c r="AR42" s="56"/>
+      <c r="AM42" s="37"/>
+      <c r="AR42" s="37"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X43" s="41"/>
@@ -29748,10 +29399,10 @@
   <dimension ref="A1:AU54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="1" sqref="AA22:AC22 M19"/>
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.16"/>
@@ -31273,10 +30924,10 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y12" activeCellId="1" sqref="AA22:AC22 Y12"/>
+      <selection pane="topLeft" activeCell="Y12" activeCellId="0" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.16"/>
@@ -31485,13 +31136,13 @@
       <c r="C12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="57" t="n">
+      <c r="D12" s="56" t="n">
         <v>1E-010</v>
       </c>
-      <c r="E12" s="57" t="n">
+      <c r="E12" s="56" t="n">
         <v>1E-010</v>
       </c>
-      <c r="F12" s="58" t="n">
+      <c r="F12" s="57" t="n">
         <f aca="false">PRODUCT(D12:E12)</f>
         <v>1E-020</v>
       </c>
@@ -31787,10 +31438,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
-      <selection pane="bottomRight" activeCell="D59" activeCellId="1" sqref="AA22:AC22 D59"/>
+      <selection pane="bottomRight" activeCell="D59" activeCellId="0" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.67"/>
@@ -31879,16 +31530,16 @@
       <c r="C3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="59" t="n">
+      <c r="D3" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E3" s="59" t="n">
+      <c r="E3" s="58" t="n">
         <v>0.210861759257025</v>
       </c>
-      <c r="F3" s="59" t="n">
+      <c r="F3" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G3" s="59" t="n">
+      <c r="G3" s="58" t="n">
         <v>0.0281963311351873</v>
       </c>
       <c r="H3" s="12" t="n">
@@ -31905,16 +31556,16 @@
       <c r="C4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="59" t="n">
+      <c r="D4" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E4" s="59" t="n">
+      <c r="E4" s="58" t="n">
         <v>0.0735335673227738</v>
       </c>
-      <c r="F4" s="59" t="n">
+      <c r="F4" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G4" s="59" t="n">
+      <c r="G4" s="58" t="n">
         <v>0.0286633072660316</v>
       </c>
       <c r="H4" s="12" t="n">
@@ -31931,16 +31582,16 @@
       <c r="C5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="59" t="n">
+      <c r="D5" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E5" s="59" t="n">
+      <c r="E5" s="58" t="n">
         <v>0.0228855223722232</v>
       </c>
-      <c r="F5" s="59" t="n">
+      <c r="F5" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G5" s="59" t="n">
+      <c r="G5" s="58" t="n">
         <v>0.224497046207658</v>
       </c>
       <c r="H5" s="12" t="n">
@@ -31957,16 +31608,16 @@
       <c r="C6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="59" t="n">
+      <c r="D6" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E6" s="59" t="n">
+      <c r="E6" s="58" t="n">
         <v>0.00114281868130302</v>
       </c>
-      <c r="F6" s="59" t="n">
+      <c r="F6" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G6" s="58" t="n">
         <v>0.0317902134280087</v>
       </c>
       <c r="H6" s="12" t="n">
@@ -31983,16 +31634,16 @@
       <c r="C7" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="59" t="n">
+      <c r="D7" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E7" s="59" t="n">
+      <c r="E7" s="58" t="n">
         <v>0.0259099849043504</v>
       </c>
-      <c r="F7" s="59" t="n">
+      <c r="F7" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G7" s="59" t="n">
+      <c r="G7" s="58" t="n">
         <v>0.170482929007251</v>
       </c>
       <c r="H7" s="12" t="n">
@@ -32009,16 +31660,16 @@
       <c r="C8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="59" t="n">
+      <c r="D8" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E8" s="59" t="n">
+      <c r="E8" s="58" t="n">
         <v>0.136845768171156</v>
       </c>
-      <c r="F8" s="59" t="n">
+      <c r="F8" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G8" s="59" t="n">
+      <c r="G8" s="58" t="n">
         <v>0.0454264638752156</v>
       </c>
       <c r="H8" s="12" t="n">
@@ -32035,16 +31686,16 @@
       <c r="C9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="59" t="n">
+      <c r="D9" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E9" s="59" t="n">
+      <c r="E9" s="58" t="n">
         <v>0.118653561284674</v>
       </c>
-      <c r="F9" s="59" t="n">
+      <c r="F9" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G9" s="59" t="n">
+      <c r="G9" s="58" t="n">
         <v>0.320165242176175</v>
       </c>
       <c r="H9" s="12" t="n">
@@ -32061,16 +31712,16 @@
       <c r="C10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="59" t="n">
+      <c r="D10" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E10" s="59" t="n">
+      <c r="E10" s="58" t="n">
         <v>0.153804094680827</v>
       </c>
-      <c r="F10" s="59" t="n">
+      <c r="F10" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G10" s="59" t="n">
+      <c r="G10" s="58" t="n">
         <v>0.0220328768809411</v>
       </c>
       <c r="H10" s="12" t="n">
@@ -32087,16 +31738,16 @@
       <c r="C11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="59" t="n">
+      <c r="D11" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E11" s="59" t="n">
+      <c r="E11" s="58" t="n">
         <v>0.00614783090353588</v>
       </c>
-      <c r="F11" s="59" t="n">
+      <c r="F11" s="58" t="n">
         <v>0.199360444579827</v>
       </c>
-      <c r="G11" s="59" t="n">
+      <c r="G11" s="58" t="n">
         <v>0.790509720980781</v>
       </c>
       <c r="H11" s="12" t="n">
@@ -32113,16 +31764,16 @@
       <c r="C12" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="59" t="n">
+      <c r="D12" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E12" s="59" t="n">
+      <c r="E12" s="58" t="n">
         <v>0.493761281654635</v>
       </c>
-      <c r="F12" s="59" t="n">
+      <c r="F12" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G12" s="59" t="n">
+      <c r="G12" s="58" t="n">
         <v>0.418806456599763</v>
       </c>
       <c r="H12" s="12" t="n">
@@ -32139,16 +31790,16 @@
       <c r="C13" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="59" t="n">
+      <c r="D13" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E13" s="59" t="n">
+      <c r="E13" s="58" t="n">
         <v>0.262281256362572</v>
       </c>
-      <c r="F13" s="59" t="n">
+      <c r="F13" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G13" s="59" t="n">
+      <c r="G13" s="58" t="n">
         <v>0.182382265692303</v>
       </c>
       <c r="H13" s="12" t="n">
@@ -32165,16 +31816,16 @@
       <c r="C14" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="59" t="n">
+      <c r="D14" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E14" s="59" t="n">
+      <c r="E14" s="58" t="n">
         <v>0.0183777631771212</v>
       </c>
-      <c r="F14" s="59" t="n">
+      <c r="F14" s="58" t="n">
         <v>0.199360444579827</v>
       </c>
-      <c r="G14" s="59" t="n">
+      <c r="G14" s="58" t="n">
         <v>0.209490279019219</v>
       </c>
       <c r="H14" s="12" t="n">
@@ -32191,16 +31842,16 @@
       <c r="C15" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="59" t="n">
+      <c r="D15" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E15" s="59" t="n">
+      <c r="E15" s="58" t="n">
         <v>0.493761281654635</v>
       </c>
-      <c r="F15" s="59" t="n">
+      <c r="F15" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G15" s="59" t="n">
+      <c r="G15" s="58" t="n">
         <v>0.0119864737771605</v>
       </c>
       <c r="H15" s="12" t="n">
@@ -32217,16 +31868,16 @@
       <c r="C16" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="59" t="n">
+      <c r="D16" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E16" s="59" t="n">
+      <c r="E16" s="58" t="n">
         <v>0.163191675347039</v>
       </c>
-      <c r="F16" s="59" t="n">
+      <c r="F16" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G16" s="59" t="n">
+      <c r="G16" s="58" t="n">
         <v>0.410714384104541</v>
       </c>
       <c r="H16" s="12" t="n">
@@ -32243,16 +31894,16 @@
       <c r="C17" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="59" t="n">
+      <c r="D17" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E17" s="59" t="n">
+      <c r="E17" s="58" t="n">
         <v>0.0593267806423371</v>
       </c>
-      <c r="F17" s="59" t="n">
+      <c r="F17" s="58" t="n">
         <v>0.188898725694253</v>
       </c>
-      <c r="G17" s="59" t="n">
+      <c r="G17" s="58" t="n">
         <v>0.0192787672708235</v>
       </c>
       <c r="H17" s="12" t="n">
@@ -32269,16 +31920,16 @@
       <c r="C18" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="59" t="n">
+      <c r="D18" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E18" s="59" t="n">
+      <c r="E18" s="58" t="n">
         <v>0.0151015479568266</v>
       </c>
-      <c r="F18" s="59" t="n">
+      <c r="F18" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G18" s="59" t="n">
+      <c r="G18" s="58" t="n">
         <v>0.303743283462689</v>
       </c>
       <c r="H18" s="12" t="n">
@@ -32295,16 +31946,16 @@
       <c r="C19" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="59" t="n">
+      <c r="D19" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E19" s="59" t="n">
+      <c r="E19" s="58" t="n">
         <v>0.210861759257025</v>
       </c>
-      <c r="F19" s="59" t="n">
+      <c r="F19" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G19" s="59" t="n">
+      <c r="G19" s="58" t="n">
         <v>0.0612540842231622</v>
       </c>
       <c r="H19" s="12" t="n">
@@ -32321,16 +31972,16 @@
       <c r="C20" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="59" t="n">
+      <c r="D20" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E20" s="59" t="n">
+      <c r="E20" s="58" t="n">
         <v>0.0651467268611581</v>
       </c>
-      <c r="F20" s="59" t="n">
+      <c r="F20" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G20" s="59" t="n">
+      <c r="G20" s="58" t="n">
         <v>0.0160479077618239</v>
       </c>
       <c r="H20" s="12" t="n">
@@ -32347,16 +31998,16 @@
       <c r="C21" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="59" t="n">
+      <c r="D21" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E21" s="59" t="n">
+      <c r="E21" s="58" t="n">
         <v>0.0868707774996032</v>
       </c>
-      <c r="F21" s="59" t="n">
+      <c r="F21" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G21" s="59" t="n">
+      <c r="G21" s="58" t="n">
         <v>0.0120884832011234</v>
       </c>
       <c r="H21" s="12" t="n">
@@ -32373,16 +32024,16 @@
       <c r="C22" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="59" t="n">
+      <c r="D22" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E22" s="59" t="n">
+      <c r="E22" s="58" t="n">
         <v>0.0244754495118939</v>
       </c>
-      <c r="F22" s="59" t="n">
+      <c r="F22" s="58" t="n">
         <v>0.520713362670397</v>
       </c>
-      <c r="G22" s="59" t="n">
+      <c r="G22" s="58" t="n">
         <v>0.639923994439176</v>
       </c>
       <c r="H22" s="12" t="n">
@@ -32399,16 +32050,16 @@
       <c r="C23" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="59" t="n">
+      <c r="D23" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E23" s="59" t="n">
+      <c r="E23" s="58" t="n">
         <v>0.210861759257025</v>
       </c>
-      <c r="F23" s="59" t="n">
+      <c r="F23" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G23" s="59" t="n">
+      <c r="G23" s="58" t="n">
         <v>0.0397512889389382</v>
       </c>
       <c r="H23" s="12" t="n">
@@ -32425,16 +32076,16 @@
       <c r="C24" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="59" t="n">
+      <c r="D24" s="58" t="n">
         <v>8270.20152104352</v>
       </c>
-      <c r="E24" s="59" t="n">
+      <c r="E24" s="58" t="n">
         <v>0.0837350090280012</v>
       </c>
-      <c r="F24" s="59" t="n">
+      <c r="F24" s="58" t="n">
         <v>0.0910274670555227</v>
       </c>
-      <c r="G24" s="59" t="n">
+      <c r="G24" s="58" t="n">
         <v>0.0127682005520273</v>
       </c>
       <c r="H24" s="12" t="n">
@@ -32569,16 +32220,16 @@
       <c r="C31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="59" t="n">
+      <c r="D31" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E31" s="59" t="n">
+      <c r="E31" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F31" s="59" t="n">
+      <c r="F31" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G31" s="59" t="n">
+      <c r="G31" s="58" t="n">
         <v>0.00925878452059151</v>
       </c>
       <c r="H31" s="12" t="n">
@@ -32643,16 +32294,16 @@
       <c r="C32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="59" t="n">
+      <c r="D32" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E32" s="59" t="n">
+      <c r="E32" s="58" t="n">
         <v>0.0724899446886559</v>
       </c>
-      <c r="F32" s="59" t="n">
+      <c r="F32" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G32" s="59" t="n">
+      <c r="G32" s="58" t="n">
         <v>0.0361522024181595</v>
       </c>
       <c r="H32" s="12" t="n">
@@ -32714,16 +32365,16 @@
       <c r="C33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="59" t="n">
+      <c r="D33" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E33" s="59" t="n">
+      <c r="E33" s="58" t="n">
         <v>0.0226904733321914</v>
       </c>
-      <c r="F33" s="59" t="n">
+      <c r="F33" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G33" s="59" t="n">
+      <c r="G33" s="58" t="n">
         <v>0.218175299958428</v>
       </c>
       <c r="H33" s="12" t="n">
@@ -32776,16 +32427,16 @@
       <c r="C34" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="59" t="n">
+      <c r="D34" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E34" s="59" t="n">
+      <c r="E34" s="58" t="n">
         <v>0.0011510591794668</v>
       </c>
-      <c r="F34" s="59" t="n">
+      <c r="F34" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G34" s="59" t="n">
+      <c r="G34" s="58" t="n">
         <v>0.0400960792629738</v>
       </c>
       <c r="H34" s="12" t="n">
@@ -32838,16 +32489,16 @@
       <c r="C35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="59" t="n">
+      <c r="D35" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E35" s="59" t="n">
+      <c r="E35" s="58" t="n">
         <v>0.0257013002986612</v>
       </c>
-      <c r="F35" s="59" t="n">
+      <c r="F35" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G35" s="59" t="n">
+      <c r="G35" s="58" t="n">
         <v>0.21940993894905</v>
       </c>
       <c r="H35" s="12" t="n">
@@ -32900,16 +32551,16 @@
       <c r="C36" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="59" t="n">
+      <c r="D36" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E36" s="59" t="n">
+      <c r="E36" s="58" t="n">
         <v>0.140993538248919</v>
       </c>
-      <c r="F36" s="59" t="n">
+      <c r="F36" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G36" s="59" t="n">
+      <c r="G36" s="58" t="n">
         <v>0.0504030260039234</v>
       </c>
       <c r="H36" s="12" t="n">
@@ -32962,16 +32613,16 @@
       <c r="C37" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="59" t="n">
+      <c r="D37" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E37" s="59" t="n">
+      <c r="E37" s="58" t="n">
         <v>0.123416120976476</v>
       </c>
-      <c r="F37" s="59" t="n">
+      <c r="F37" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G37" s="59" t="n">
+      <c r="G37" s="58" t="n">
         <v>0.345241762153261</v>
       </c>
       <c r="H37" s="12" t="n">
@@ -33024,16 +32675,16 @@
       <c r="C38" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="59" t="n">
+      <c r="D38" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E38" s="59" t="n">
+      <c r="E38" s="58" t="n">
         <v>0.16228499347261</v>
       </c>
-      <c r="F38" s="59" t="n">
+      <c r="F38" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G38" s="59" t="n">
+      <c r="G38" s="58" t="n">
         <v>0.0240866345688322</v>
       </c>
       <c r="H38" s="12" t="n">
@@ -33086,16 +32737,16 @@
       <c r="C39" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="59" t="n">
+      <c r="D39" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E39" s="59" t="n">
+      <c r="E39" s="58" t="n">
         <v>0.00612131525257037</v>
       </c>
-      <c r="F39" s="59" t="n">
+      <c r="F39" s="58" t="n">
         <v>0.212252344564235</v>
       </c>
-      <c r="G39" s="59" t="n">
+      <c r="G39" s="58" t="n">
         <v>0.788832163625664</v>
       </c>
       <c r="H39" s="12" t="n">
@@ -33148,16 +32799,16 @@
       <c r="C40" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="59" t="n">
+      <c r="D40" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E40" s="59" t="n">
+      <c r="E40" s="58" t="n">
         <v>0.486470319038246</v>
       </c>
-      <c r="F40" s="59" t="n">
+      <c r="F40" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G40" s="59" t="n">
+      <c r="G40" s="58" t="n">
         <v>0.370620466239571</v>
       </c>
       <c r="H40" s="12" t="n">
@@ -33210,16 +32861,16 @@
       <c r="C41" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="59" t="n">
+      <c r="D41" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E41" s="59" t="n">
+      <c r="E41" s="58" t="n">
         <v>0.260952941952193</v>
       </c>
-      <c r="F41" s="59" t="n">
+      <c r="F41" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G41" s="59" t="n">
+      <c r="G41" s="58" t="n">
         <v>0.19204267864621</v>
       </c>
       <c r="H41" s="12" t="n">
@@ -33272,16 +32923,16 @@
       <c r="C42" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="59" t="n">
+      <c r="D42" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E42" s="59" t="n">
+      <c r="E42" s="58" t="n">
         <v>0.018277172793558</v>
       </c>
-      <c r="F42" s="59" t="n">
+      <c r="F42" s="58" t="n">
         <v>0.212252344564235</v>
       </c>
-      <c r="G42" s="59" t="n">
+      <c r="G42" s="58" t="n">
         <v>0.211167836374336</v>
       </c>
       <c r="H42" s="12" t="n">
@@ -33334,16 +32985,16 @@
       <c r="C43" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="59" t="n">
+      <c r="D43" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E43" s="59" t="n">
+      <c r="E43" s="58" t="n">
         <v>0.486470319038246</v>
       </c>
-      <c r="F43" s="59" t="n">
+      <c r="F43" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G43" s="59" t="n">
+      <c r="G43" s="58" t="n">
         <v>0.0151181937747328</v>
       </c>
       <c r="H43" s="12" t="n">
@@ -33396,16 +33047,16 @@
       <c r="C44" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="59" t="n">
+      <c r="D44" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E44" s="59" t="n">
+      <c r="E44" s="58" t="n">
         <v>0.159948113706962</v>
       </c>
-      <c r="F44" s="59" t="n">
+      <c r="F44" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G44" s="59" t="n">
+      <c r="G44" s="58" t="n">
         <v>0.367788754145128</v>
       </c>
       <c r="H44" s="12" t="n">
@@ -33458,16 +33109,16 @@
       <c r="C45" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="59" t="n">
+      <c r="D45" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E45" s="59" t="n">
+      <c r="E45" s="58" t="n">
         <v>0.0617080609494767</v>
       </c>
-      <c r="F45" s="59" t="n">
+      <c r="F45" s="58" t="n">
         <v>0.187763562564062</v>
       </c>
-      <c r="G45" s="59" t="n">
+      <c r="G45" s="58" t="n">
         <v>0.0204371444826455</v>
       </c>
       <c r="H45" s="12" t="n">
@@ -33520,16 +33171,16 @@
       <c r="C46" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="59" t="n">
+      <c r="D46" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E46" s="59" t="n">
+      <c r="E46" s="58" t="n">
         <v>0.0151199881160101</v>
       </c>
-      <c r="F46" s="59" t="n">
+      <c r="F46" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G46" s="59" t="n">
+      <c r="G46" s="58" t="n">
         <v>0.326129843593374</v>
       </c>
       <c r="H46" s="12" t="n">
@@ -33582,16 +33233,16 @@
       <c r="C47" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="59" t="n">
+      <c r="D47" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E47" s="59" t="n">
+      <c r="E47" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F47" s="59" t="n">
+      <c r="F47" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G47" s="59" t="n">
+      <c r="G47" s="58" t="n">
         <v>0.0577889017409375</v>
       </c>
       <c r="H47" s="12" t="n">
@@ -33644,16 +33295,16 @@
       <c r="C48" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="59" t="n">
+      <c r="D48" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E48" s="59" t="n">
+      <c r="E48" s="58" t="n">
         <v>0.0644096465150297</v>
       </c>
-      <c r="F48" s="59" t="n">
+      <c r="F48" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G48" s="59" t="n">
+      <c r="G48" s="58" t="n">
         <v>0.0304612794129688</v>
       </c>
       <c r="H48" s="12" t="n">
@@ -33706,16 +33357,16 @@
       <c r="C49" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="59" t="n">
+      <c r="D49" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E49" s="59" t="n">
+      <c r="E49" s="58" t="n">
         <v>0.0853257009510521</v>
       </c>
-      <c r="F49" s="59" t="n">
+      <c r="F49" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G49" s="59" t="n">
+      <c r="G49" s="58" t="n">
         <v>0.0151676337065547</v>
       </c>
       <c r="H49" s="12" t="n">
@@ -33768,16 +33419,16 @@
       <c r="C50" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="59" t="n">
+      <c r="D50" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E50" s="59" t="n">
+      <c r="E50" s="58" t="n">
         <v>0.0244757404799017</v>
       </c>
-      <c r="F50" s="59" t="n">
+      <c r="F50" s="58" t="n">
         <v>0.521283202253618</v>
       </c>
-      <c r="G50" s="59" t="n">
+      <c r="G50" s="58" t="n">
         <v>0.618982458766511</v>
       </c>
       <c r="H50" s="12" t="n">
@@ -33830,16 +33481,16 @@
       <c r="C51" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="59" t="n">
+      <c r="D51" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E51" s="59" t="n">
+      <c r="E51" s="58" t="n">
         <v>0.168054744834221</v>
       </c>
-      <c r="F51" s="59" t="n">
+      <c r="F51" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G51" s="59" t="n">
+      <c r="G51" s="58" t="n">
         <v>0.0265347548694745</v>
       </c>
       <c r="H51" s="12" t="n">
@@ -33892,16 +33543,16 @@
       <c r="C52" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="59" t="n">
+      <c r="D52" s="58" t="n">
         <v>7909.89857589961</v>
       </c>
-      <c r="E52" s="59" t="n">
+      <c r="E52" s="58" t="n">
         <v>0.0821590927966329</v>
       </c>
-      <c r="F52" s="59" t="n">
+      <c r="F52" s="58" t="n">
         <v>0.078700890618085</v>
       </c>
-      <c r="G52" s="59" t="n">
+      <c r="G52" s="58" t="n">
         <v>0.0161041627866726</v>
       </c>
       <c r="H52" s="12" t="n">
@@ -34089,19 +33740,19 @@
       <c r="C59" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="60" t="n">
+      <c r="D59" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="E59" s="61" t="n">
+      <c r="E59" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F59" s="61" t="n">
+      <c r="F59" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="G59" s="61" t="n">
+      <c r="G59" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="62" t="n">
+      <c r="H59" s="61" t="n">
         <f aca="false">PRODUCT(D59:G59)</f>
         <v>0</v>
       </c>
@@ -34117,7 +33768,7 @@
         <f aca="false">(H82-H54) / (LN(H82) - LN(H54))</f>
         <v>511.173157464617</v>
       </c>
-      <c r="N59" s="63" t="n">
+      <c r="N59" s="62" t="n">
         <v>0</v>
       </c>
       <c r="O59" s="13" t="n">
@@ -34128,19 +33779,19 @@
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
-      <c r="V59" s="64" t="n">
+      <c r="V59" s="63" t="n">
         <f aca="false">-$H31</f>
         <v>-6.41577907883252</v>
       </c>
-      <c r="W59" s="65" t="n">
+      <c r="W59" s="64" t="n">
         <f aca="false">-$H31</f>
         <v>-6.41577907883252</v>
       </c>
-      <c r="X59" s="65" t="n">
+      <c r="X59" s="64" t="n">
         <f aca="false">-$H31</f>
         <v>-6.41577907883252</v>
       </c>
-      <c r="Y59" s="66" t="n">
+      <c r="Y59" s="65" t="n">
         <f aca="false">-$H31</f>
         <v>-6.41577907883252</v>
       </c>
